--- a/biology/Biochimie/Disulfure_de_glutathion/Disulfure_de_glutathion.xlsx
+++ b/biology/Biochimie/Disulfure_de_glutathion/Disulfure_de_glutathion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le disulfure de glutathion (GSSG) est un dimère de molécules de glutathion unies par un pont disulfure[2].
-Dans les cellules vivantes, le disulfure de glutathion est réduit en deux molécules de glutathion à l'aide du NADPH, coenzyme réductrice de la glutathion réductase[3]. Des enzymes à l'action antioxydante telles que la glutathion peroxydase et les peroxyrédoxines produisent du disulfure de glutathion en réduisant les peroxydes tels que le peroxyde d'hydrogène H2O2 et les hydroperoxydes organiques[4] :
+Le disulfure de glutathion (GSSG) est un dimère de molécules de glutathion unies par un pont disulfure.
+Dans les cellules vivantes, le disulfure de glutathion est réduit en deux molécules de glutathion à l'aide du NADPH, coenzyme réductrice de la glutathion réductase. Des enzymes à l'action antioxydante telles que la glutathion peroxydase et les peroxyrédoxines produisent du disulfure de glutathion en réduisant les peroxydes tels que le peroxyde d'hydrogène H2O2 et les hydroperoxydes organiques :
 2 GSH + ROOH → GSSG + ROH + H2O.
-D'autres enzymes, telles que les glutarédoxines, produisent du disulfure de glutathion par échange thiol-disulfure avec des ponts disulfures de protéines ou d'autres composés à plus faible poids moléculaire tels que le disulfure de coenzyme A et l'acide déshydroascorbique[5] :
+D'autres enzymes, telles que les glutarédoxines, produisent du disulfure de glutathion par échange thiol-disulfure avec des ponts disulfures de protéines ou d'autres composés à plus faible poids moléculaire tels que le disulfure de coenzyme A et l'acide déshydroascorbique :
 2 GSH + R-S-S-R → GSSG + 2 RSH.</t>
         </is>
       </c>
